--- a/reporteador/archivo_excel_2024-12-03-2024-12-03.xlsx
+++ b/reporteador/archivo_excel_2024-12-03-2024-12-03.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\Reporteador ETB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\Escritorio\api-etb\reporteador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE929897-D1D1-4E35-9850-81719914C009}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6D400A-475A-4F03-9A85-BFFC96515747}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5185" uniqueCount="2614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5185" uniqueCount="2613">
   <si>
     <t>documenter</t>
   </si>
@@ -12295,9 +12295,6 @@
   </si>
   <si>
     <t>CORTE Y/O APERTURA DOBLE</t>
-  </si>
-  <si>
-    <t>CLIENTE</t>
   </si>
   <si>
     <t>ULTIMA MILLA</t>
@@ -12699,8 +12696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S187" workbookViewId="0">
-      <selection activeCell="W203" sqref="W203"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12870,13 +12867,13 @@
         <v>2604</v>
       </c>
       <c r="V2" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="W2" s="4" t="s">
-        <v>2606</v>
-      </c>
       <c r="Y2" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z2" t="s">
         <v>44</v>
@@ -12947,13 +12944,13 @@
         <v>2604</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>2605</v>
+        <v>773</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z3" t="s">
         <v>63</v>
@@ -13021,13 +13018,13 @@
         <v>2604</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>2605</v>
+        <v>773</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z4" t="s">
         <v>80</v>
@@ -13080,13 +13077,13 @@
         <v>2604</v>
       </c>
       <c r="V5" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="W5" s="4" t="s">
-        <v>2606</v>
-      </c>
       <c r="Y5" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z5" t="s">
         <v>92</v>
@@ -13154,13 +13151,13 @@
         <v>2604</v>
       </c>
       <c r="V6" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="W6" s="4" t="s">
-        <v>2606</v>
-      </c>
       <c r="Y6" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z6" t="s">
         <v>108</v>
@@ -13231,13 +13228,13 @@
         <v>2604</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>2605</v>
+        <v>773</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z7" t="s">
         <v>124</v>
@@ -13308,13 +13305,13 @@
         <v>2604</v>
       </c>
       <c r="V8" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="W8" s="4" t="s">
-        <v>2606</v>
-      </c>
       <c r="Y8" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z8" t="s">
         <v>140</v>
@@ -13385,13 +13382,13 @@
         <v>2604</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>2605</v>
+        <v>773</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z9" t="s">
         <v>156</v>
@@ -13459,13 +13456,13 @@
         <v>2604</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>2605</v>
+        <v>773</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z10" t="s">
         <v>108</v>
@@ -13536,13 +13533,13 @@
         <v>2604</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>2605</v>
+        <v>773</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z11" t="s">
         <v>187</v>
@@ -13613,13 +13610,13 @@
         <v>2604</v>
       </c>
       <c r="V12" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W12" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="W12" s="4" t="s">
-        <v>2606</v>
-      </c>
       <c r="Y12" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z12" t="s">
         <v>203</v>
@@ -13690,13 +13687,13 @@
         <v>2604</v>
       </c>
       <c r="V13" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W13" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="W13" s="4" t="s">
-        <v>2606</v>
-      </c>
       <c r="Y13" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z13" t="s">
         <v>218</v>
@@ -13767,13 +13764,13 @@
         <v>2604</v>
       </c>
       <c r="V14" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W14" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="W14" s="4" t="s">
-        <v>2606</v>
-      </c>
       <c r="Y14" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z14" t="s">
         <v>234</v>
@@ -13841,13 +13838,13 @@
         <v>2604</v>
       </c>
       <c r="V15" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W15" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="W15" s="4" t="s">
-        <v>2606</v>
-      </c>
       <c r="Y15" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z15" t="s">
         <v>248</v>
@@ -13918,13 +13915,13 @@
         <v>2604</v>
       </c>
       <c r="V16" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W16" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="W16" s="4" t="s">
-        <v>2606</v>
-      </c>
       <c r="Y16" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z16" t="s">
         <v>262</v>
@@ -13989,13 +13986,13 @@
         <v>2604</v>
       </c>
       <c r="V17" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W17" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="W17" s="4" t="s">
-        <v>2606</v>
-      </c>
       <c r="Y17" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z17" t="s">
         <v>274</v>
@@ -14066,13 +14063,13 @@
         <v>2604</v>
       </c>
       <c r="V18" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W18" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="W18" s="4" t="s">
-        <v>2606</v>
-      </c>
       <c r="Y18" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z18" t="s">
         <v>234</v>
@@ -14140,13 +14137,13 @@
         <v>2604</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>2605</v>
+        <v>773</v>
       </c>
       <c r="W19" s="4">
         <v>0</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z19" t="s">
         <v>299</v>
@@ -14217,13 +14214,13 @@
         <v>2604</v>
       </c>
       <c r="V20" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W20" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="W20" s="4" t="s">
-        <v>2606</v>
-      </c>
       <c r="Y20" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z20" t="s">
         <v>187</v>
@@ -14291,13 +14288,13 @@
         <v>2604</v>
       </c>
       <c r="V21" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W21" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="W21" s="4" t="s">
-        <v>2606</v>
-      </c>
       <c r="Y21" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z21" t="s">
         <v>327</v>
@@ -14365,13 +14362,13 @@
         <v>2604</v>
       </c>
       <c r="V22" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W22" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="W22" s="4" t="s">
-        <v>2606</v>
-      </c>
       <c r="Y22" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z22" t="s">
         <v>340</v>
@@ -14442,13 +14439,13 @@
         <v>2604</v>
       </c>
       <c r="V23" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W23" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="W23" s="4" t="s">
-        <v>2606</v>
-      </c>
       <c r="Y23" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z23" t="s">
         <v>355</v>
@@ -14510,13 +14507,13 @@
         <v>2604</v>
       </c>
       <c r="V24" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W24" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="W24" s="4" t="s">
-        <v>2606</v>
-      </c>
       <c r="Y24" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z24" t="s">
         <v>274</v>
@@ -14587,13 +14584,13 @@
         <v>2604</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>2605</v>
+        <v>773</v>
       </c>
       <c r="W25" s="4">
         <v>0</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z25" t="s">
         <v>380</v>
@@ -14661,13 +14658,13 @@
         <v>2604</v>
       </c>
       <c r="V26" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W26" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="W26" s="4" t="s">
-        <v>2606</v>
-      </c>
       <c r="Y26" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z26" t="s">
         <v>234</v>
@@ -14735,13 +14732,13 @@
         <v>2604</v>
       </c>
       <c r="V27" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W27" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="W27" s="4" t="s">
-        <v>2606</v>
-      </c>
       <c r="Y27" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z27" t="s">
         <v>380</v>
@@ -14809,13 +14806,13 @@
         <v>2604</v>
       </c>
       <c r="V28" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W28" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="W28" s="4" t="s">
-        <v>2606</v>
-      </c>
       <c r="Y28" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z28" t="s">
         <v>417</v>
@@ -14886,13 +14883,13 @@
         <v>2604</v>
       </c>
       <c r="V29" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W29" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="W29" s="4" t="s">
-        <v>2606</v>
-      </c>
       <c r="Y29" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z29" t="s">
         <v>433</v>
@@ -14960,16 +14957,16 @@
         <v>445</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="V30" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W30" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="W30" s="4" t="s">
-        <v>2606</v>
-      </c>
       <c r="Y30" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z30" t="s">
         <v>417</v>
@@ -15037,16 +15034,16 @@
         <v>457</v>
       </c>
       <c r="U31" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W31" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y31" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V31" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W31" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y31" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z31" t="s">
         <v>433</v>
@@ -15114,16 +15111,16 @@
         <v>43</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>2605</v>
+        <v>773</v>
       </c>
       <c r="W32" s="4" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="Y32" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z32" t="s">
         <v>80</v>
@@ -15191,16 +15188,16 @@
         <v>481</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="V33" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W33" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="W33" s="4" t="s">
-        <v>2606</v>
-      </c>
       <c r="Y33" s="4" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="Z33" t="s">
         <v>482</v>
@@ -15268,16 +15265,16 @@
         <v>495</v>
       </c>
       <c r="U34" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y34" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V34" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W34" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y34" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z34" t="s">
         <v>496</v>
@@ -15342,16 +15339,16 @@
         <v>510</v>
       </c>
       <c r="U35" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y35" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V35" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W35" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y35" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z35" t="s">
         <v>511</v>
@@ -15419,16 +15416,16 @@
         <v>524</v>
       </c>
       <c r="U36" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W36" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y36" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V36" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W36" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y36" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z36" t="s">
         <v>525</v>
@@ -15496,16 +15493,16 @@
         <v>121</v>
       </c>
       <c r="U37" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y37" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V37" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W37" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y37" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z37" t="s">
         <v>525</v>
@@ -15573,16 +15570,16 @@
         <v>550</v>
       </c>
       <c r="U38" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y38" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V38" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W38" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y38" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z38" t="s">
         <v>551</v>
@@ -15650,16 +15647,16 @@
         <v>561</v>
       </c>
       <c r="U39" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y39" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V39" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W39" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y39" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z39" t="s">
         <v>140</v>
@@ -15727,16 +15724,16 @@
         <v>550</v>
       </c>
       <c r="U40" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y40" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V40" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W40" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y40" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z40" t="s">
         <v>551</v>
@@ -15804,16 +15801,16 @@
         <v>585</v>
       </c>
       <c r="U41" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W41" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y41" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V41" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W41" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y41" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z41" t="s">
         <v>586</v>
@@ -15881,16 +15878,16 @@
         <v>599</v>
       </c>
       <c r="U42" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y42" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V42" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W42" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y42" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z42" t="s">
         <v>600</v>
@@ -15958,16 +15955,16 @@
         <v>614</v>
       </c>
       <c r="U43" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W43" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y43" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V43" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W43" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y43" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z43" t="s">
         <v>615</v>
@@ -16035,16 +16032,16 @@
         <v>629</v>
       </c>
       <c r="U44" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y44" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V44" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W44" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y44" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z44" t="s">
         <v>630</v>
@@ -16112,16 +16109,16 @@
         <v>641</v>
       </c>
       <c r="U45" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y45" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V45" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W45" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y45" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z45" t="s">
         <v>642</v>
@@ -16189,16 +16186,16 @@
         <v>655</v>
       </c>
       <c r="U46" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W46" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y46" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V46" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W46" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y46" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z46" t="s">
         <v>656</v>
@@ -16266,16 +16263,16 @@
         <v>669</v>
       </c>
       <c r="U47" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W47" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y47" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V47" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W47" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y47" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z47" t="s">
         <v>670</v>
@@ -16343,16 +16340,16 @@
         <v>683</v>
       </c>
       <c r="U48" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W48" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y48" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V48" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W48" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y48" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z48" t="s">
         <v>684</v>
@@ -16420,16 +16417,16 @@
         <v>698</v>
       </c>
       <c r="U49" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W49" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y49" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V49" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W49" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y49" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z49" t="s">
         <v>699</v>
@@ -16497,16 +16494,16 @@
         <v>710</v>
       </c>
       <c r="U50" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W50" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y50" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V50" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W50" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y50" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z50" t="s">
         <v>656</v>
@@ -16574,16 +16571,16 @@
         <v>326</v>
       </c>
       <c r="U51" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W51" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y51" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V51" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W51" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y51" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z51" t="s">
         <v>327</v>
@@ -16651,16 +16648,16 @@
         <v>734</v>
       </c>
       <c r="U52" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W52" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y52" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V52" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W52" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y52" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z52" t="s">
         <v>140</v>
@@ -16725,16 +16722,16 @@
         <v>550</v>
       </c>
       <c r="U53" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V53" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W53" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y53" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V53" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W53" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y53" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z53" t="s">
         <v>551</v>
@@ -16802,16 +16799,16 @@
         <v>758</v>
       </c>
       <c r="U54" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V54" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W54" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y54" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V54" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W54" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y54" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z54" t="s">
         <v>63</v>
@@ -16876,16 +16873,16 @@
         <v>770</v>
       </c>
       <c r="U55" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V55" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W55" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y55" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V55" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W55" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y55" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z55" t="s">
         <v>771</v>
@@ -16953,16 +16950,16 @@
         <v>509</v>
       </c>
       <c r="U56" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V56" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W56" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y56" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V56" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W56" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y56" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z56" t="s">
         <v>92</v>
@@ -17030,16 +17027,16 @@
         <v>794</v>
       </c>
       <c r="U57" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V57" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W57" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y57" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V57" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W57" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y57" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z57" t="s">
         <v>156</v>
@@ -17107,16 +17104,16 @@
         <v>808</v>
       </c>
       <c r="U58" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V58" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W58" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y58" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V58" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W58" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y58" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z58" t="s">
         <v>809</v>
@@ -17184,16 +17181,16 @@
         <v>821</v>
       </c>
       <c r="U59" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V59" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W59" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y59" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V59" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W59" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y59" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z59" t="s">
         <v>187</v>
@@ -17240,16 +17237,16 @@
         <v>121</v>
       </c>
       <c r="U60" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V60" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W60" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y60" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V60" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W60" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y60" s="4" t="s">
-        <v>2613</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
@@ -17311,16 +17308,16 @@
         <v>841</v>
       </c>
       <c r="U61" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V61" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W61" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y61" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V61" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W61" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y61" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z61" t="s">
         <v>63</v>
@@ -17385,16 +17382,16 @@
         <v>855</v>
       </c>
       <c r="U62" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V62" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W62" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y62" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V62" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W62" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y62" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z62" t="s">
         <v>856</v>
@@ -17462,16 +17459,16 @@
         <v>868</v>
       </c>
       <c r="U63" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V63" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W63" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y63" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V63" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W63" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y63" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z63" t="s">
         <v>108</v>
@@ -17539,16 +17536,16 @@
         <v>880</v>
       </c>
       <c r="U64" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V64" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W64" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y64" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V64" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W64" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y64" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z64" t="s">
         <v>881</v>
@@ -17616,16 +17613,16 @@
         <v>893</v>
       </c>
       <c r="U65" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V65" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W65" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y65" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V65" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W65" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y65" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z65" t="s">
         <v>894</v>
@@ -17690,16 +17687,16 @@
         <v>906</v>
       </c>
       <c r="U66" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V66" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W66" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y66" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V66" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W66" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y66" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z66" t="s">
         <v>670</v>
@@ -17767,16 +17764,16 @@
         <v>919</v>
       </c>
       <c r="U67" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V67" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W67" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y67" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V67" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W67" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y67" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z67" t="s">
         <v>600</v>
@@ -17844,16 +17841,16 @@
         <v>931</v>
       </c>
       <c r="U68" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V68" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W68" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y68" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V68" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W68" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y68" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z68" t="s">
         <v>586</v>
@@ -17921,16 +17918,16 @@
         <v>944</v>
       </c>
       <c r="U69" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V69" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W69" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y69" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V69" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W69" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y69" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z69" t="s">
         <v>945</v>
@@ -17998,16 +17995,16 @@
         <v>957</v>
       </c>
       <c r="U70" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V70" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W70" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y70" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V70" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W70" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y70" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z70" t="s">
         <v>511</v>
@@ -18075,16 +18072,16 @@
         <v>61</v>
       </c>
       <c r="U71" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V71" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W71" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y71" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V71" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W71" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y71" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z71" t="s">
         <v>92</v>
@@ -18152,16 +18149,16 @@
         <v>982</v>
       </c>
       <c r="U72" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V72" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W72" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y72" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V72" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W72" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y72" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z72" t="s">
         <v>983</v>
@@ -18229,16 +18226,16 @@
         <v>996</v>
       </c>
       <c r="U73" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V73" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W73" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y73" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V73" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W73" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y73" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z73" t="s">
         <v>380</v>
@@ -18303,16 +18300,16 @@
         <v>1008</v>
       </c>
       <c r="U74" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V74" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W74" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y74" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V74" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W74" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y74" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z74" t="s">
         <v>809</v>
@@ -18380,16 +18377,16 @@
         <v>1017</v>
       </c>
       <c r="U75" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V75" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W75" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y75" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V75" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W75" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y75" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z75" t="s">
         <v>340</v>
@@ -18457,16 +18454,16 @@
         <v>1031</v>
       </c>
       <c r="U76" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V76" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W76" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y76" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V76" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W76" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y76" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z76" t="s">
         <v>262</v>
@@ -18534,16 +18531,16 @@
         <v>1044</v>
       </c>
       <c r="U77" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V77" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W77" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y77" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V77" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W77" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y77" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z77" t="s">
         <v>1045</v>
@@ -18611,16 +18608,16 @@
         <v>821</v>
       </c>
       <c r="U78" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V78" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W78" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y78" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V78" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W78" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y78" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z78" t="s">
         <v>299</v>
@@ -18688,16 +18685,16 @@
         <v>1068</v>
       </c>
       <c r="U79" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V79" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W79" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y79" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V79" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W79" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y79" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z79" t="s">
         <v>1069</v>
@@ -18765,16 +18762,16 @@
         <v>1080</v>
       </c>
       <c r="U80" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V80" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W80" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y80" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V80" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W80" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y80" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z80" t="s">
         <v>983</v>
@@ -18842,16 +18839,16 @@
         <v>1092</v>
       </c>
       <c r="U81" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V81" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W81" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y81" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V81" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W81" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y81" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z81" t="s">
         <v>124</v>
@@ -18898,16 +18895,16 @@
         <v>55</v>
       </c>
       <c r="U82" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V82" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W82" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y82" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V82" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W82" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y82" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z82" t="s">
         <v>1101</v>
@@ -18975,16 +18972,16 @@
         <v>1115</v>
       </c>
       <c r="U83" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V83" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W83" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y83" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V83" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W83" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y83" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z83" t="s">
         <v>1116</v>
@@ -19052,16 +19049,16 @@
         <v>1127</v>
       </c>
       <c r="U84" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V84" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W84" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y84" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V84" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W84" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y84" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z84" t="s">
         <v>1069</v>
@@ -19129,16 +19126,16 @@
         <v>1138</v>
       </c>
       <c r="U85" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V85" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W85" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y85" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V85" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W85" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y85" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z85" t="s">
         <v>1139</v>
@@ -19200,16 +19197,16 @@
         <v>60</v>
       </c>
       <c r="U86" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V86" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W86" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y86" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V86" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W86" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y86" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z86" t="s">
         <v>1150</v>
@@ -19277,16 +19274,16 @@
         <v>1162</v>
       </c>
       <c r="U87" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V87" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W87" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y87" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V87" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W87" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y87" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z87" t="s">
         <v>1163</v>
@@ -19354,16 +19351,16 @@
         <v>1176</v>
       </c>
       <c r="U88" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V88" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W88" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y88" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V88" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W88" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y88" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z88" t="s">
         <v>1177</v>
@@ -19431,16 +19428,16 @@
         <v>1190</v>
       </c>
       <c r="U89" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V89" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W89" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y89" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V89" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W89" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y89" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z89" t="s">
         <v>1191</v>
@@ -19505,16 +19502,16 @@
         <v>1204</v>
       </c>
       <c r="U90" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V90" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W90" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y90" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V90" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W90" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y90" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z90" t="s">
         <v>1205</v>
@@ -19579,16 +19576,16 @@
         <v>1217</v>
       </c>
       <c r="U91" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V91" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W91" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y91" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V91" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W91" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y91" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z91" t="s">
         <v>1218</v>
@@ -19656,16 +19653,16 @@
         <v>1232</v>
       </c>
       <c r="U92" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V92" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W92" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y92" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V92" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W92" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y92" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z92" t="s">
         <v>1233</v>
@@ -19733,16 +19730,16 @@
         <v>821</v>
       </c>
       <c r="U93" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V93" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W93" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y93" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V93" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W93" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y93" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z93" t="s">
         <v>299</v>
@@ -19810,16 +19807,16 @@
         <v>1256</v>
       </c>
       <c r="U94" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V94" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W94" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y94" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V94" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W94" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y94" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z94" t="s">
         <v>1257</v>
@@ -19887,16 +19884,16 @@
         <v>1269</v>
       </c>
       <c r="U95" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V95" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W95" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y95" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V95" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W95" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y95" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z95" t="s">
         <v>1270</v>
@@ -19964,16 +19961,16 @@
         <v>1283</v>
       </c>
       <c r="U96" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V96" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W96" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y96" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V96" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W96" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y96" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z96" t="s">
         <v>656</v>
@@ -20038,16 +20035,16 @@
         <v>1297</v>
       </c>
       <c r="U97" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V97" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W97" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y97" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V97" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W97" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y97" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z97" t="s">
         <v>1298</v>
@@ -20115,16 +20112,16 @@
         <v>1310</v>
       </c>
       <c r="U98" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V98" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W98" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y98" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V98" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W98" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y98" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z98" t="s">
         <v>1311</v>
@@ -20189,16 +20186,16 @@
         <v>1323</v>
       </c>
       <c r="U99" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V99" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W99" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y99" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V99" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W99" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y99" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z99" t="s">
         <v>124</v>
@@ -20266,16 +20263,16 @@
         <v>1335</v>
       </c>
       <c r="U100" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V100" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W100" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y100" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V100" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W100" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y100" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z100" t="s">
         <v>1101</v>
@@ -20340,16 +20337,16 @@
         <v>1347</v>
       </c>
       <c r="U101" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V101" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W101" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y101" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V101" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W101" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y101" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z101" t="s">
         <v>1348</v>
@@ -20417,16 +20414,16 @@
         <v>1360</v>
       </c>
       <c r="U102" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V102" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W102" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y102" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V102" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W102" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y102" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z102" t="s">
         <v>856</v>
@@ -20491,16 +20488,16 @@
         <v>1374</v>
       </c>
       <c r="U103" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V103" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W103" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y103" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V103" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W103" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y103" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z103" t="s">
         <v>1375</v>
@@ -20568,16 +20565,16 @@
         <v>1386</v>
       </c>
       <c r="U104" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V104" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W104" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y104" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V104" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W104" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y104" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z104" t="s">
         <v>856</v>
@@ -20642,16 +20639,16 @@
         <v>1398</v>
       </c>
       <c r="U105" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V105" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W105" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y105" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V105" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W105" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y105" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z105" t="s">
         <v>670</v>
@@ -20719,16 +20716,16 @@
         <v>1409</v>
       </c>
       <c r="U106" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V106" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W106" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y106" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V106" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W106" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y106" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z106" t="s">
         <v>1101</v>
@@ -20796,16 +20793,16 @@
         <v>1422</v>
       </c>
       <c r="U107" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V107" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W107" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y107" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V107" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W107" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y107" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z107" t="s">
         <v>482</v>
@@ -20873,16 +20870,16 @@
         <v>1433</v>
       </c>
       <c r="U108" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V108" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W108" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y108" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V108" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W108" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y108" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z108" t="s">
         <v>809</v>
@@ -20950,16 +20947,16 @@
         <v>1443</v>
       </c>
       <c r="U109" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V109" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W109" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y109" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V109" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W109" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y109" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z109" t="s">
         <v>482</v>
@@ -21027,16 +21024,16 @@
         <v>1455</v>
       </c>
       <c r="U110" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V110" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W110" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y110" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V110" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W110" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y110" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z110" t="s">
         <v>699</v>
@@ -21104,16 +21101,16 @@
         <v>1466</v>
       </c>
       <c r="U111" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V111" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W111" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y111" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V111" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W111" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y111" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z111" t="s">
         <v>496</v>
@@ -21175,16 +21172,16 @@
         <v>231</v>
       </c>
       <c r="U112" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V112" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W112" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y112" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V112" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W112" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y112" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z112" t="s">
         <v>274</v>
@@ -21252,16 +21249,16 @@
         <v>1488</v>
       </c>
       <c r="U113" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V113" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W113" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y113" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V113" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W113" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y113" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z113" t="s">
         <v>699</v>
@@ -21329,16 +21326,16 @@
         <v>495</v>
       </c>
       <c r="U114" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V114" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W114" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y114" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V114" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W114" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y114" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z114" t="s">
         <v>496</v>
@@ -21406,16 +21403,16 @@
         <v>1510</v>
       </c>
       <c r="U115" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V115" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W115" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y115" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V115" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W115" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y115" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z115" t="s">
         <v>600</v>
@@ -21483,16 +21480,16 @@
         <v>1521</v>
       </c>
       <c r="U116" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V116" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W116" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y116" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V116" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W116" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y116" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z116" t="s">
         <v>482</v>
@@ -21560,16 +21557,16 @@
         <v>1533</v>
       </c>
       <c r="U117" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V117" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W117" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y117" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V117" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W117" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y117" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z117" t="s">
         <v>809</v>
@@ -21637,16 +21634,16 @@
         <v>1545</v>
       </c>
       <c r="U118" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V118" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W118" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y118" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V118" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W118" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y118" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z118" t="s">
         <v>1546</v>
@@ -21714,16 +21711,16 @@
         <v>1559</v>
       </c>
       <c r="U119" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V119" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W119" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y119" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V119" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W119" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y119" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z119" t="s">
         <v>1560</v>
@@ -21791,16 +21788,16 @@
         <v>1573</v>
       </c>
       <c r="U120" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V120" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W120" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y120" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V120" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W120" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y120" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z120" t="s">
         <v>1574</v>
@@ -21865,16 +21862,16 @@
         <v>1586</v>
       </c>
       <c r="U121" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V121" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W121" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y121" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V121" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W121" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y121" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z121" t="s">
         <v>1587</v>
@@ -21942,16 +21939,16 @@
         <v>1598</v>
       </c>
       <c r="U122" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V122" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W122" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y122" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V122" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W122" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y122" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z122" t="s">
         <v>1560</v>
@@ -22019,16 +22016,16 @@
         <v>1611</v>
       </c>
       <c r="U123" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V123" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W123" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="Y123" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V123" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W123" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="Y123" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z123" t="s">
         <v>1612</v>
@@ -22096,16 +22093,16 @@
         <v>918</v>
       </c>
       <c r="U124" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V124" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W124" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y124" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V124" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W124" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y124" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z124" t="s">
         <v>1623</v>
@@ -22173,16 +22170,16 @@
         <v>1634</v>
       </c>
       <c r="U125" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V125" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W125" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y125" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V125" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W125" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y125" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z125" t="s">
         <v>1560</v>
@@ -22250,16 +22247,16 @@
         <v>1647</v>
       </c>
       <c r="U126" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V126" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W126" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y126" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V126" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W126" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y126" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z126" t="s">
         <v>1648</v>
@@ -22327,16 +22324,16 @@
         <v>1611</v>
       </c>
       <c r="U127" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V127" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W127" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y127" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V127" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W127" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y127" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z127" t="s">
         <v>1612</v>
@@ -22404,16 +22401,16 @@
         <v>1672</v>
       </c>
       <c r="U128" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V128" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W128" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y128" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V128" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W128" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y128" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z128" t="s">
         <v>1673</v>
@@ -22478,16 +22475,16 @@
         <v>1684</v>
       </c>
       <c r="U129" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V129" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W129" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y129" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V129" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W129" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y129" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z129" t="s">
         <v>1560</v>
@@ -22555,16 +22552,16 @@
         <v>1647</v>
       </c>
       <c r="U130" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V130" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W130" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y130" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V130" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W130" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y130" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z130" t="s">
         <v>1648</v>
@@ -22632,16 +22629,16 @@
         <v>1705</v>
       </c>
       <c r="U131" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V131" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W131" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y131" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V131" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W131" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y131" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z131" t="s">
         <v>1706</v>
@@ -22697,16 +22694,16 @@
         <v>995</v>
       </c>
       <c r="U132" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V132" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W132" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y132" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V132" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W132" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y132" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z132" t="s">
         <v>1716</v>
@@ -22771,16 +22768,16 @@
         <v>231</v>
       </c>
       <c r="U133" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V133" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W133" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y133" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V133" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W133" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y133" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z133" t="s">
         <v>1623</v>
@@ -22848,16 +22845,16 @@
         <v>1611</v>
       </c>
       <c r="U134" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V134" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W134" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y134" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V134" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W134" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y134" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z134" t="s">
         <v>1612</v>
@@ -22925,16 +22922,16 @@
         <v>1748</v>
       </c>
       <c r="U135" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V135" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W135" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y135" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V135" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W135" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y135" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z135" t="s">
         <v>1177</v>
@@ -23002,16 +22999,16 @@
         <v>1757</v>
       </c>
       <c r="U136" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V136" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W136" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y136" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V136" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W136" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y136" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z136" t="s">
         <v>1706</v>
@@ -23079,16 +23076,16 @@
         <v>1770</v>
       </c>
       <c r="U137" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V137" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W137" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y137" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V137" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W137" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y137" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z137" t="s">
         <v>1546</v>
@@ -23156,16 +23153,16 @@
         <v>1783</v>
       </c>
       <c r="U138" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V138" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W138" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y138" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V138" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W138" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y138" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z138" t="s">
         <v>1784</v>
@@ -23233,16 +23230,16 @@
         <v>1795</v>
       </c>
       <c r="U139" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V139" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W139" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y139" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V139" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W139" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y139" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z139" t="s">
         <v>511</v>
@@ -23310,16 +23307,16 @@
         <v>1806</v>
       </c>
       <c r="U140" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V140" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W140" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y140" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V140" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W140" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y140" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z140" t="s">
         <v>1177</v>
@@ -23384,16 +23381,16 @@
         <v>1818</v>
       </c>
       <c r="U141" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V141" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W141" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y141" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V141" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W141" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y141" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z141" t="s">
         <v>1218</v>
@@ -23461,16 +23458,16 @@
         <v>1829</v>
       </c>
       <c r="U142" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V142" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W142" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y142" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V142" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W142" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y142" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z142" t="s">
         <v>642</v>
@@ -23532,16 +23529,16 @@
         <v>188</v>
       </c>
       <c r="U143" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V143" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W143" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y143" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V143" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W143" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y143" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z143" t="s">
         <v>1623</v>
@@ -23609,16 +23606,16 @@
         <v>1611</v>
       </c>
       <c r="U144" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V144" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W144" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y144" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V144" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W144" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y144" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z144" t="s">
         <v>1612</v>
@@ -23683,16 +23680,16 @@
         <v>1860</v>
       </c>
       <c r="U145" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V145" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W145" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y145" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V145" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W145" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y145" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z145" t="s">
         <v>1861</v>
@@ -23760,16 +23757,16 @@
         <v>1871</v>
       </c>
       <c r="U146" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V146" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W146" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y146" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V146" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W146" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y146" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z146" t="s">
         <v>1116</v>
@@ -23834,16 +23831,16 @@
         <v>1882</v>
       </c>
       <c r="U147" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V147" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W147" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y147" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V147" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W147" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y147" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z147" t="s">
         <v>340</v>
@@ -23908,16 +23905,16 @@
         <v>1893</v>
       </c>
       <c r="U148" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V148" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W148" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y148" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V148" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W148" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y148" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z148" t="s">
         <v>1574</v>
@@ -23982,16 +23979,16 @@
         <v>202</v>
       </c>
       <c r="U149" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V149" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W149" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y149" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V149" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W149" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y149" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z149" t="s">
         <v>203</v>
@@ -24059,16 +24056,16 @@
         <v>1914</v>
       </c>
       <c r="U150" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V150" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W150" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y150" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V150" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W150" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y150" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z150" t="s">
         <v>1784</v>
@@ -24136,16 +24133,16 @@
         <v>1925</v>
       </c>
       <c r="U151" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V151" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W151" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y151" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V151" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W151" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y151" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z151" t="s">
         <v>1861</v>
@@ -24213,16 +24210,16 @@
         <v>1937</v>
       </c>
       <c r="U152" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V152" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W152" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y152" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V152" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W152" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y152" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z152" t="s">
         <v>1069</v>
@@ -24290,16 +24287,16 @@
         <v>1949</v>
       </c>
       <c r="U153" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V153" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W153" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y153" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V153" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W153" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y153" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z153" t="s">
         <v>1101</v>
@@ -24367,16 +24364,16 @@
         <v>1962</v>
       </c>
       <c r="U154" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V154" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W154" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y154" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V154" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W154" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y154" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z154" t="s">
         <v>1963</v>
@@ -24444,16 +24441,16 @@
         <v>1974</v>
       </c>
       <c r="U155" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V155" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W155" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y155" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V155" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W155" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y155" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z155" t="s">
         <v>1706</v>
@@ -24521,16 +24518,16 @@
         <v>1987</v>
       </c>
       <c r="U156" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V156" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W156" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y156" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V156" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W156" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y156" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z156" t="s">
         <v>1218</v>
@@ -24598,16 +24595,16 @@
         <v>1997</v>
       </c>
       <c r="U157" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V157" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W157" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y157" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V157" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W157" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y157" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z157" t="s">
         <v>1574</v>
@@ -24675,16 +24672,16 @@
         <v>2010</v>
       </c>
       <c r="U158" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V158" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W158" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y158" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V158" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W158" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y158" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z158" t="s">
         <v>1546</v>
@@ -24752,16 +24749,16 @@
         <v>2021</v>
       </c>
       <c r="U159" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V159" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W159" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y159" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V159" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W159" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y159" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z159" t="s">
         <v>642</v>
@@ -24829,16 +24826,16 @@
         <v>2030</v>
       </c>
       <c r="U160" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V160" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W160" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y160" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V160" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W160" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y160" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z160" t="s">
         <v>1784</v>
@@ -24906,16 +24903,16 @@
         <v>2042</v>
       </c>
       <c r="U161" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V161" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W161" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y161" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V161" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W161" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y161" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z161" t="s">
         <v>1963</v>
@@ -24983,16 +24980,16 @@
         <v>2055</v>
       </c>
       <c r="U162" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V162" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W162" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y162" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V162" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W162" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y162" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z162" t="s">
         <v>1963</v>
@@ -25060,16 +25057,16 @@
         <v>2067</v>
       </c>
       <c r="U163" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V163" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W163" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y163" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V163" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W163" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y163" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z163" t="s">
         <v>983</v>
@@ -25134,16 +25131,16 @@
         <v>2079</v>
       </c>
       <c r="U164" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V164" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W164" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y164" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V164" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W164" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y164" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z164" t="s">
         <v>856</v>
@@ -25211,16 +25208,16 @@
         <v>2092</v>
       </c>
       <c r="U165" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V165" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W165" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y165" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V165" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W165" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y165" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z165" t="s">
         <v>2093</v>
@@ -25288,16 +25285,16 @@
         <v>2105</v>
       </c>
       <c r="U166" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V166" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W166" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y166" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V166" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W166" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y166" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z166" t="s">
         <v>2093</v>
@@ -25365,16 +25362,16 @@
         <v>2105</v>
       </c>
       <c r="U167" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V167" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W167" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y167" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V167" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W167" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y167" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z167" t="s">
         <v>2093</v>
@@ -25442,16 +25439,16 @@
         <v>61</v>
       </c>
       <c r="U168" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V168" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W168" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y168" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V168" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W168" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y168" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z168" t="s">
         <v>2128</v>
@@ -25519,16 +25516,16 @@
         <v>2139</v>
       </c>
       <c r="U169" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V169" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W169" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y169" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V169" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W169" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y169" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z169" t="s">
         <v>248</v>
@@ -25596,16 +25593,16 @@
         <v>202</v>
       </c>
       <c r="U170" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V170" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W170" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y170" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V170" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W170" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y170" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z170" t="s">
         <v>203</v>
@@ -25673,16 +25670,16 @@
         <v>2159</v>
       </c>
       <c r="U171" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V171" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W171" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y171" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V171" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W171" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y171" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z171" t="s">
         <v>248</v>
@@ -25750,16 +25747,16 @@
         <v>2169</v>
       </c>
       <c r="U172" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V172" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W172" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y172" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V172" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W172" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y172" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z172" t="s">
         <v>1045</v>
@@ -25827,16 +25824,16 @@
         <v>2181</v>
       </c>
       <c r="U173" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V173" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W173" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y173" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V173" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W173" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y173" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z173" t="s">
         <v>218</v>
@@ -25904,16 +25901,16 @@
         <v>2193</v>
       </c>
       <c r="U174" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V174" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W174" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y174" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V174" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W174" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y174" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z174" t="s">
         <v>1163</v>
@@ -25981,16 +25978,16 @@
         <v>2204</v>
       </c>
       <c r="U175" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V175" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W175" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y175" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V175" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W175" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y175" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z175" t="s">
         <v>1045</v>
@@ -26040,16 +26037,16 @@
         <v>171</v>
       </c>
       <c r="U176" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V176" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W176" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y176" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V176" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W176" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y176" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z176" t="s">
         <v>218</v>
@@ -26117,16 +26114,16 @@
         <v>2222</v>
       </c>
       <c r="U177" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V177" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W177" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y177" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V177" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W177" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y177" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z177" t="s">
         <v>2223</v>
@@ -26194,16 +26191,16 @@
         <v>43</v>
       </c>
       <c r="U178" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V178" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W178" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y178" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V178" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W178" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y178" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z178" t="s">
         <v>44</v>
@@ -26271,16 +26268,16 @@
         <v>2245</v>
       </c>
       <c r="U179" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V179" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W179" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y179" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V179" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W179" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y179" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z179" t="s">
         <v>945</v>
@@ -26348,16 +26345,16 @@
         <v>2256</v>
       </c>
       <c r="U180" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V180" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W180" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y180" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V180" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W180" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y180" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z180" t="s">
         <v>1861</v>
@@ -26422,16 +26419,16 @@
         <v>2193</v>
       </c>
       <c r="U181" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V181" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W181" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y181" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V181" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W181" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y181" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z181" t="s">
         <v>1163</v>
@@ -26499,16 +26496,16 @@
         <v>1190</v>
       </c>
       <c r="U182" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V182" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W182" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y182" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V182" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W182" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y182" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z182" t="s">
         <v>1191</v>
@@ -26576,16 +26573,16 @@
         <v>2285</v>
       </c>
       <c r="U183" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V183" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W183" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y183" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V183" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W183" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y183" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z183" t="s">
         <v>1191</v>
@@ -26653,16 +26650,16 @@
         <v>2297</v>
       </c>
       <c r="U184" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V184" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W184" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y184" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V184" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W184" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y184" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z184" t="s">
         <v>2298</v>
@@ -26730,16 +26727,16 @@
         <v>2311</v>
       </c>
       <c r="U185" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V185" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W185" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y185" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V185" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W185" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y185" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z185" t="s">
         <v>2312</v>
@@ -26795,16 +26792,16 @@
         <v>2222</v>
       </c>
       <c r="U186" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V186" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W186" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y186" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V186" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W186" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y186" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z186" t="s">
         <v>2223</v>
@@ -26866,16 +26863,16 @@
         <v>171</v>
       </c>
       <c r="U187" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V187" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W187" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y187" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V187" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W187" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y187" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z187" t="s">
         <v>1150</v>
@@ -26943,16 +26940,16 @@
         <v>2339</v>
       </c>
       <c r="U188" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V188" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W188" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y188" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V188" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W188" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y188" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z188" t="s">
         <v>2340</v>
@@ -27017,16 +27014,16 @@
         <v>2352</v>
       </c>
       <c r="U189" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V189" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W189" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y189" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V189" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W189" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y189" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z189" t="s">
         <v>1375</v>
@@ -27094,16 +27091,16 @@
         <v>524</v>
       </c>
       <c r="U190" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V190" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W190" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y190" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V190" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W190" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y190" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z190" t="s">
         <v>525</v>
@@ -27171,16 +27168,16 @@
         <v>880</v>
       </c>
       <c r="U191" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V191" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W191" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y191" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V191" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W191" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y191" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z191" t="s">
         <v>881</v>
@@ -27248,16 +27245,16 @@
         <v>2382</v>
       </c>
       <c r="U192" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V192" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W192" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y192" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V192" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W192" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y192" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z192" t="s">
         <v>355</v>
@@ -27325,16 +27322,16 @@
         <v>2394</v>
       </c>
       <c r="U193" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V193" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W193" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y193" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V193" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W193" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y193" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z193" t="s">
         <v>2340</v>
@@ -27402,16 +27399,16 @@
         <v>2405</v>
       </c>
       <c r="U194" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V194" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W194" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y194" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V194" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W194" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y194" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z194" t="s">
         <v>218</v>
@@ -27479,16 +27476,16 @@
         <v>2417</v>
       </c>
       <c r="U195" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V195" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W195" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y195" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V195" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W195" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y195" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z195" t="s">
         <v>2298</v>
@@ -27556,16 +27553,16 @@
         <v>2427</v>
       </c>
       <c r="U196" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V196" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W196" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y196" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V196" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W196" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y196" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z196" t="s">
         <v>586</v>
@@ -27630,16 +27627,16 @@
         <v>2439</v>
       </c>
       <c r="U197" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V197" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W197" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y197" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V197" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W197" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y197" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z197" t="s">
         <v>2298</v>
@@ -27704,16 +27701,16 @@
         <v>2451</v>
       </c>
       <c r="U198" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V198" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W198" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y198" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V198" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W198" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y198" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z198" t="s">
         <v>945</v>
@@ -27778,16 +27775,16 @@
         <v>2463</v>
       </c>
       <c r="U199" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V199" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W199" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y199" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V199" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W199" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y199" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z199" t="s">
         <v>2464</v>
@@ -27849,16 +27846,16 @@
         <v>60</v>
       </c>
       <c r="U200" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V200" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W200" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y200" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V200" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W200" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y200" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z200" t="s">
         <v>2340</v>
@@ -27923,16 +27920,16 @@
         <v>2487</v>
       </c>
       <c r="U201" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V201" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W201" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y201" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V201" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W201" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y201" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z201" t="s">
         <v>1375</v>
@@ -27997,16 +27994,16 @@
         <v>326</v>
       </c>
       <c r="U202" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V202" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W202" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y202" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V202" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W202" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y202" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z202" t="s">
         <v>327</v>
@@ -28050,16 +28047,16 @@
         <v>594</v>
       </c>
       <c r="U203" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V203" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W203" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y203" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V203" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W203" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y203" s="4" t="s">
-        <v>2613</v>
       </c>
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.3">
@@ -28121,16 +28118,16 @@
         <v>509</v>
       </c>
       <c r="U204" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V204" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W204" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y204" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V204" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W204" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y204" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z204" t="s">
         <v>92</v>
@@ -28195,16 +28192,16 @@
         <v>2526</v>
       </c>
       <c r="U205" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V205" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W205" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y205" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V205" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W205" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y205" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z205" t="s">
         <v>262</v>
@@ -28269,16 +28266,16 @@
         <v>61</v>
       </c>
       <c r="U206" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V206" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W206" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y206" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V206" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W206" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y206" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z206" t="s">
         <v>2128</v>
@@ -28343,16 +28340,16 @@
         <v>2547</v>
       </c>
       <c r="U207" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V207" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W207" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y207" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V207" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W207" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y207" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z207" t="s">
         <v>1257</v>
@@ -28417,16 +28414,16 @@
         <v>2558</v>
       </c>
       <c r="U208" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V208" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W208" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y208" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V208" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W208" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y208" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z208" t="s">
         <v>1298</v>
@@ -28491,16 +28488,16 @@
         <v>2571</v>
       </c>
       <c r="U209" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V209" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W209" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y209" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V209" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W209" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y209" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z209" t="s">
         <v>1270</v>
@@ -28565,16 +28562,16 @@
         <v>1204</v>
       </c>
       <c r="U210" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V210" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W210" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y210" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V210" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W210" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y210" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z210" t="s">
         <v>1205</v>
@@ -28639,16 +28636,16 @@
         <v>61</v>
       </c>
       <c r="U211" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V211" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W211" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y211" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V211" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W211" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y211" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z211" t="s">
         <v>2128</v>
@@ -28713,16 +28710,16 @@
         <v>2603</v>
       </c>
       <c r="U212" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="V212" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="W212" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="Y212" s="4" t="s">
         <v>2612</v>
-      </c>
-      <c r="V212" s="4" t="s">
-        <v>2605</v>
-      </c>
-      <c r="W212" s="4" t="s">
-        <v>2606</v>
-      </c>
-      <c r="Y212" s="4" t="s">
-        <v>2613</v>
       </c>
       <c r="Z212" t="s">
         <v>1270</v>
